--- a/target/bs_ssm/file/学生信息表.xlsx
+++ b/target/bs_ssm/file/学生信息表.xlsx
@@ -14,45 +14,100 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>李文彦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="24">
   <si>
     <t>计算机学院</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>软件工程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件161</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>女</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张笑天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经济与管理学院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会计学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会计161</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜拉拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯晓晓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张晓峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文昌海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩晓丽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张天利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李香香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰浚凯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧阳丽丽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘史健</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵芊睿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙石开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴到理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周莹莹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑乾丰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王倩倩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周多宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机科学与技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计科171</t>
+  </si>
+  <si>
+    <t>计科171</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -416,42 +471,362 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1">
-        <v>201600834102</v>
+        <v>201700814101</v>
       </c>
       <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>201700814102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
-        <v>201600824103</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" s="1">
+        <v>201700814103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B4" s="1">
+        <v>201700814104</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B5" s="1">
+        <v>201700814105</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B6" s="1">
+        <v>201700814106</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>201700814107</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>201700814108</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>201700814109</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>201700814110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>201700814111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>201700814112</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>201700814113</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>201700814114</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>201700814115</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>201700814116</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>201700814117</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>201700814118</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
